--- a/Addons/X-RTC/X-RTC BOM.xlsx
+++ b/Addons/X-RTC/X-RTC BOM.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD34A90-275C-4447-94FC-90CA2D178F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="1860" yWindow="1965" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="BOM_Board1_ModXo RTC_2024-12-03" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="BOM_Board1_ModXo RTC_2024-12-12" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>No.</t>
   </si>
@@ -152,12 +148,21 @@
     <t>7</t>
   </si>
   <si>
+    <t>PBY201209T-201Y-N</t>
+  </si>
+  <si>
     <t>L1</t>
   </si>
   <si>
     <t>L0805</t>
   </si>
   <si>
+    <t>chilisin(奇力新)</t>
+  </si>
+  <si>
+    <t>C280676</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
@@ -192,25 +197,19 @@
   </si>
   <si>
     <t>C88419</t>
-  </si>
-  <si>
-    <t>200ohm ferrite bead</t>
-  </si>
-  <si>
-    <t>200ohm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -573,14 +572,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
@@ -817,45 +814,57 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
         <v>20</v>
@@ -863,37 +872,37 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -901,6 +910,6 @@
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>